--- a/reports/MX_Result_Table.xlsx
+++ b/reports/MX_Result_Table.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56FA535-8986-7C43-8A73-EA977437AD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5853889-CE56-0D4B-9C72-CF550EABA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="29400" windowHeight="18360" activeTab="4" xr2:uid="{ED2461F9-67B0-5E47-BB92-D72D9CEAC80A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="5" xr2:uid="{ED2461F9-67B0-5E47-BB92-D72D9CEAC80A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cognitive Load Classification" sheetId="1" r:id="rId1"/>
     <sheet name="Aha! Moment Prediction" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="MX_1 Event List" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
   <si>
     <t>Cognitive Load Classification</t>
   </si>
@@ -149,57 +150,24 @@
     <t>Both: Pupil + Puzzle</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Start a session</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Click the button to start a session</t>
-  </si>
-  <si>
-    <t>00:45</t>
-  </si>
-  <si>
     <t>SESSION_0</t>
   </si>
   <si>
     <t>PIECE_0</t>
   </si>
   <si>
-    <t>00:58</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
     <t>PIECE_1</t>
   </si>
   <si>
-    <t>01:23</t>
-  </si>
-  <si>
     <t>PUZZLE_0</t>
   </si>
   <si>
-    <t>Insert a piece into the puzzle correctly</t>
-  </si>
-  <si>
     <t>PUZZLE_1</t>
   </si>
   <si>
-    <t>01:34</t>
-  </si>
-  <si>
-    <t>01:49</t>
-  </si>
-  <si>
     <t>Take out a piece from the puzzle to an empty place</t>
   </si>
   <si>
@@ -209,289 +177,30 @@
     <t>PIECE_3</t>
   </si>
   <si>
-    <t>02:20</t>
-  </si>
-  <si>
     <t>PUZZLE_3</t>
   </si>
   <si>
-    <t>02:48</t>
-  </si>
-  <si>
-    <t>Click the button to start a new puzzle</t>
-  </si>
-  <si>
     <t>PUZZLE_4</t>
   </si>
   <si>
-    <t>04:28</t>
-  </si>
-  <si>
-    <t>03:17</t>
-  </si>
-  <si>
     <t>PUZZLE_5</t>
   </si>
   <si>
-    <t>Catch a piece in the puzzle instend to take out actually do not take out</t>
-  </si>
-  <si>
     <t>PUZZLE_6</t>
   </si>
   <si>
-    <t>04:42</t>
-  </si>
-  <si>
-    <t>Catch a piece in the puzzle and move it into another potential place in the Puzzle</t>
-  </si>
-  <si>
     <t>PUZZLE_7</t>
   </si>
   <si>
-    <t>04:54</t>
-  </si>
-  <si>
-    <t>Insert a piece into the puzzle incorrectly</t>
-  </si>
-  <si>
-    <t>06:08</t>
-  </si>
-  <si>
-    <t>Give up and end the puzzle</t>
-  </si>
-  <si>
     <t>PUZZLE_8</t>
   </si>
   <si>
     <t>PUZZLE_9</t>
   </si>
   <si>
-    <t>07:28</t>
-  </si>
-  <si>
-    <t>TIMED OUT</t>
-  </si>
-  <si>
     <t>SESSION_1</t>
   </si>
   <si>
-    <t>10:08</t>
-  </si>
-  <si>
-    <t>Grab a piece from the piece list in the beginning</t>
-  </si>
-  <si>
-    <t>Drop a piece to an empty palce (near the puzzle)</t>
-  </si>
-  <si>
-    <t>Give up to insert a piece into the puzzle (and try to grab a new piece)</t>
-  </si>
-  <si>
-    <t>Drop a piece and then try to grab a new piece</t>
-  </si>
-  <si>
-    <t>Finish a puzzle (The puzzle is disapperead)</t>
-  </si>
-  <si>
-    <t>Take out a piece from the puzzle in order to insert another piece into the puzzle</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here’s a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comprehensive Atomic Event Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for your 3D puzzle experiment that covers:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. ✅ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All existing events</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> you provided.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. ✅ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New recommended events</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more granular behavior analysis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. ✅ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clearer event codes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for easier processing during analysis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. ✅ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Event types</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to categorize the behavior (e.g., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Strategy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, etc.).</t>
-    </r>
-  </si>
-  <si>
-    <t>📊 Comprehensive Atomic Event Table for 3D Puzzle Experiment</t>
-  </si>
-  <si>
     <t>Event Name</t>
   </si>
   <si>
@@ -513,9 +222,6 @@
     <t>Click the button to start a new puzzle-solving session.</t>
   </si>
   <si>
-    <t>Press “Start” to begin.</t>
-  </si>
-  <si>
     <t>Grab a piece from the piece list (initial)</t>
   </si>
   <si>
@@ -591,12 +297,6 @@
     <t>Start a new puzzle</t>
   </si>
   <si>
-    <t>Click the button to start the next puzzle.</t>
-  </si>
-  <si>
-    <t>Start another puzzle after finishing one.</t>
-  </si>
-  <si>
     <t>Take out a piece to insert another piece (strategy)</t>
   </si>
   <si>
@@ -741,376 +441,6 @@
     <t>Push a piece harder to make it fit.</t>
   </si>
   <si>
-    <t>✅ Why Is This Table More Comprehensive?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 🚀 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Behavior-based Analysis:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Now you can measure </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cognitive load</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> based on hesitation, misalignment, and re-insertion.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Detect potential frustration from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>force-fitting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and repeated failures.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. 📊 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Granular Error Tracking:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• You can separate </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user mistakes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (like misalignment, force-fit) from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strategies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (like strategic removal).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. ⏱ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Time-based Metrics:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Events like PUZZLE_IDLE allow you to measure participant’s </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>thinking time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>• PIECE_ROT captures hesitation behavior.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. 📈 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cognitive Flexibility Metrics:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Events like PUZZLE_UNDO and PUZZLE_5 can measure how often participants </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>change their strategy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>• PUZZLE_IDLE measures cognitive pause.</t>
-  </si>
-  <si>
-    <t>✅ Bonus Metrics You Can Calculate</t>
-  </si>
-  <si>
-    <t>If you’d like, I can generate Python code to calculate these metrics based on the table:</t>
-  </si>
-  <si>
-    <t>Metric Name</t>
-  </si>
-  <si>
-    <t>Formula Example</t>
-  </si>
-  <si>
-    <t>Insertion Success Rate</t>
-  </si>
-  <si>
-    <t>Give Up Rate</t>
-  </si>
-  <si>
-    <t>Strategic Behavior</t>
-  </si>
-  <si>
-    <t>Cognitive Pausing Time</t>
-  </si>
-  <si>
-    <t>Measure how long participants pause without any action (PUZZLE_IDLE).</t>
-  </si>
-  <si>
-    <t>Piece Hesitation Rate</t>
-  </si>
-  <si>
-    <t>Frustration Rate (Force Fit)</t>
-  </si>
-  <si>
-    <t>✅ Next Step (Optional)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">💡 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Would you like me to generate Python code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 🚀 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automatically process your event log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (timestamps + event code)?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. 📊 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Visualize participant behavior</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (time spent, error rate, etc.)?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. 📈 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Generate statistical insights</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> like frustration index, hesitation rate, etc.?</t>
-    </r>
-  </si>
-  <si>
-    <t>I can do that in Python or R based on your preference. 🚀</t>
-  </si>
-  <si>
-    <t>👉 Would you like me to proceed with that?</t>
-  </si>
-  <si>
     <t>Press “⭐️” to begin.</t>
   </si>
   <si>
@@ -1124,13 +454,46 @@
   </si>
   <si>
     <t>Start another puzzle after finishing self assessment.</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Conf_0.6</t>
+  </si>
+  <si>
+    <t>Conf_0.7</t>
+  </si>
+  <si>
+    <t>Conf_0.8</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>TagHandMenuPumpTime</t>
+  </si>
+  <si>
+    <t>TagClickTime</t>
+  </si>
+  <si>
+    <t>Aha</t>
+  </si>
+  <si>
+    <t>Non-Aha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1217,12 +580,6 @@
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1247,8 +604,65 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,8 +693,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1342,19 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1369,13 +794,100 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1383,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1424,6 +936,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1436,40 +983,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1486,6 +1032,1470 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>EEG Classification Results Using Pupil Dilation as Label</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t> with Varying Minimum Confidence Thresholds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$G$10:$R$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Precision</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Recall</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>F1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95010832559578995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94591246903385595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93517230089219905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93482420473570904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92609153077327699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90969332716905504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96769002228274303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96917148362234995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.966279260108037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95097323600973205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94714189643577595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93713287823463998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D1D-6B4A-8096-3209F5DE3835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$G$10:$R$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Precision</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Recall</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>F1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$13:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.94952681388012605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94343891402714897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94616977225672805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90830945558739196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91880341880341798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97285067873303099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97520661157024702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95195195195195104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94505494505494503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.947791164658634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D1D-6B4A-8096-3209F5DE3835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$G$10:$R$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Precision</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Recall</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>F1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.97364374544767796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97342576545349502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97365441693950605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97665327397111501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97353070658155405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97264289203712695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97048826544375499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97331646126760496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97472614895049203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97356100993153405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97342357213601804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97368340618027305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D1D-6B4A-8096-3209F5DE3835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$G$10:$R$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Precision</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Recall</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>F1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$15:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95944131077088302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95722933412722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95603065752319405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94409830391138805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93686006825938495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93221202854230301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97672336615935496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98055169676523102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98359774132831401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96013376749097901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95820808688063597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95721575297657902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D1D-6B4A-8096-3209F5DE3835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="418985872"/>
+        <c:axId val="419264736"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$G$10:$R$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Conf_0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Conf_0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Conf_0.8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Precision</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Recall</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>F1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$16:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95818004892361919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95500162066042993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95275678690290677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94097130955140096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93882143110440852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93410581193712128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97872541347146325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97397258009705423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97495244048927243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95915499134604909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95595712512684372</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95395580051253159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D1D-6B4A-8096-3209F5DE3835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="418985872"/>
+        <c:axId val="419264736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="418985872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419264736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419264736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418985872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5720,6 +6730,47 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAAC291-9FCB-34BF-95CB-60CD45873883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6071,34 +7122,34 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -6291,12 +7342,12 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -6309,12 +7360,12 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -6327,12 +7378,12 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -6560,1505 +7611,964 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83661C6-ADDD-6145-9EF8-68AD3FA39B5B}">
-  <dimension ref="A1:H88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="64.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="34" style="22" customWidth="1"/>
-    <col min="3" max="3" width="34" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="32.6640625" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D20" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D21" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D22" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D23" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D24" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D25" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D26" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D27" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D28" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D29" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D30" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D31" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D32" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D33" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D34" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D35" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D37" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D47" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D49" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D51" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D53" t="s">
-        <v>175</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D55" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D57" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D61" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D64" t="s">
-        <v>180</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D66" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D67" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D68" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D69" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D70" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="E70" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D71" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D72" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D74" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D79" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D81" t="s">
-        <v>193</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D83" t="s">
-        <v>194</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D86" t="s">
-        <v>195</v>
-      </c>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D88" t="s">
-        <v>196</v>
-      </c>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEB5924-14DB-0645-861B-74DA1075BFF9}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="98" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.1640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="72.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.1640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="30" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>88</v>
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>197</v>
+      <c r="A2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>95</v>
+      <c r="A3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>98</v>
+      <c r="A4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>101</v>
+      <c r="A5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>105</v>
+      <c r="A6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>107</v>
+      <c r="A7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>111</v>
+      <c r="A8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>115</v>
+      <c r="A9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>201</v>
+      <c r="A10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>122</v>
+      <c r="A11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>125</v>
+      <c r="A12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>128</v>
+      <c r="A13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>131</v>
+      <c r="A14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>134</v>
+      <c r="A15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="25" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="25" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="D18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="25" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="25" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>137</v>
-      </c>
     </row>
-    <row r="17" spans="1:5" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>142</v>
+    <row r="21" spans="1:5" s="25" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>146</v>
+    <row r="22" spans="1:5" s="25" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>166</v>
+    <row r="23" spans="1:5" s="25" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC76E68-A289-414D-9A12-26C229CDB108}">
+  <dimension ref="D7:S20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="18" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="4:19" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="4:19" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="4:19" ht="23" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0.95010832559578995</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.94591246903385595</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0.93517230089219905</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.93482420473570904</v>
+      </c>
+      <c r="K12" s="30">
+        <v>0.92609153077327699</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0.90969332716905504</v>
+      </c>
+      <c r="M12" s="30">
+        <v>0.96769002228274303</v>
+      </c>
+      <c r="N12" s="30">
+        <v>0.96917148362234995</v>
+      </c>
+      <c r="O12" s="30">
+        <v>0.966279260108037</v>
+      </c>
+      <c r="P12" s="30">
+        <v>0.95097323600973205</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>0.94714189643577595</v>
+      </c>
+      <c r="R12" s="30">
+        <v>0.93713287823463998</v>
+      </c>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28">
+        <v>3</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.94952681388012605</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0.94343891402714897</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0.94616977225672805</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0.90830945558739196</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0.91880341880341798</v>
+      </c>
+      <c r="L13" s="30">
+        <v>0.921875</v>
+      </c>
+      <c r="M13" s="30">
+        <v>1</v>
+      </c>
+      <c r="N13" s="30">
+        <v>0.97285067873303099</v>
+      </c>
+      <c r="O13" s="30">
+        <v>0.97520661157024702</v>
+      </c>
+      <c r="P13" s="30">
+        <v>0.95195195195195104</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="R13" s="30">
+        <v>0.947791164658634</v>
+      </c>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28">
+        <v>4</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0.97364374544767796</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0.97342576545349502</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0.97365441693950605</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0.97665327397111501</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0.97353070658155405</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0.97264289203712695</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0.97048826544375499</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0.97331646126760496</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0.97472614895049203</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0.97356100993153405</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>0.97342357213601804</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0.97368340618027305</v>
+      </c>
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28">
+        <v>7</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0.95944131077088302</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0.95722933412722</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0.95603065752319405</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0.94409830391138805</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0.93686006825938495</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0.93221202854230301</v>
+      </c>
+      <c r="M15" s="30">
+        <v>0.97672336615935496</v>
+      </c>
+      <c r="N15" s="30">
+        <v>0.98055169676523102</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0.98359774132831401</v>
+      </c>
+      <c r="P15" s="30">
+        <v>0.96013376749097901</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>0.95820808688063597</v>
+      </c>
+      <c r="R15" s="30">
+        <v>0.95721575297657902</v>
+      </c>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="4:19" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="32">
+        <f>AVERAGE(G12:G15)</f>
+        <v>0.95818004892361919</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" ref="H16:R16" si="0">AVERAGE(H12:H15)</f>
+        <v>0.95500162066042993</v>
+      </c>
+      <c r="I16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.95275678690290677</v>
+      </c>
+      <c r="J16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.94097130955140096</v>
+      </c>
+      <c r="K16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.93882143110440852</v>
+      </c>
+      <c r="L16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.93410581193712128</v>
+      </c>
+      <c r="M16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.97872541347146325</v>
+      </c>
+      <c r="N16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.97397258009705423</v>
+      </c>
+      <c r="O16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.97495244048927243</v>
+      </c>
+      <c r="P16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.95915499134604909</v>
+      </c>
+      <c r="Q16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.95595712512684372</v>
+      </c>
+      <c r="R16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.95395580051253159</v>
+      </c>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="4:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563B9891-5FB8-134F-AD2E-976CDAD0AAA9}">
+  <dimension ref="Q14:AJ16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="14" spans="17:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+    </row>
+    <row r="15" spans="17:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="48"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="44">
+        <v>-5</v>
+      </c>
+      <c r="W15" s="44">
+        <v>-4</v>
+      </c>
+      <c r="X15" s="44">
+        <v>-3</v>
+      </c>
+      <c r="Y15" s="44">
+        <v>-2</v>
+      </c>
+      <c r="Z15" s="45">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="46">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="17:36" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="V16:Z16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>